--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H2">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N2">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q2">
-        <v>0.9119116402293335</v>
+        <v>0.04002171985777778</v>
       </c>
       <c r="R2">
-        <v>8.207204762064</v>
+        <v>0.36019547872</v>
       </c>
       <c r="S2">
-        <v>7.159694774695639E-05</v>
+        <v>3.628453933138947E-06</v>
       </c>
       <c r="T2">
-        <v>7.159694774695638E-05</v>
+        <v>3.628453933138947E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H3">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N3">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O3">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P3">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q3">
-        <v>71.586895590224</v>
+        <v>56.41442148955066</v>
       </c>
       <c r="R3">
-        <v>644.2820603120159</v>
+        <v>507.7297934059559</v>
       </c>
       <c r="S3">
-        <v>0.0056205042208378</v>
+        <v>0.005114651001179746</v>
       </c>
       <c r="T3">
-        <v>0.0056205042208378</v>
+        <v>0.005114651001179746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I4">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J4">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N4">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q4">
-        <v>151.8623479324063</v>
+        <v>7.073618273742223</v>
       </c>
       <c r="R4">
-        <v>1366.761131391656</v>
+        <v>63.66256446368001</v>
       </c>
       <c r="S4">
-        <v>0.01192317337556106</v>
+        <v>0.0006413092225444565</v>
       </c>
       <c r="T4">
-        <v>0.01192317337556105</v>
+        <v>0.0006413092225444565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I5">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J5">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N5">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O5">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P5">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q5">
-        <v>11921.49937113363</v>
+        <v>9970.93788495773</v>
       </c>
       <c r="R5">
-        <v>107293.4943402027</v>
+        <v>89738.44096461957</v>
       </c>
       <c r="S5">
-        <v>0.9359930610445696</v>
+        <v>0.9039863582656108</v>
       </c>
       <c r="T5">
-        <v>0.9359930610445694</v>
+        <v>0.9039863582656108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H6">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I6">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J6">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N6">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q6">
-        <v>0.3003472339902223</v>
+        <v>0.01605421191111111</v>
       </c>
       <c r="R6">
-        <v>2.703125105912</v>
+        <v>0.1444879072</v>
       </c>
       <c r="S6">
-        <v>2.35811719790449E-05</v>
+        <v>1.455508872665217E-06</v>
       </c>
       <c r="T6">
-        <v>2.358117197904489E-05</v>
+        <v>1.455508872665216E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H7">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I7">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J7">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N7">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O7">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P7">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q7">
-        <v>23.57786120052533</v>
+        <v>22.62993895950666</v>
       </c>
       <c r="R7">
-        <v>212.200750804728</v>
+        <v>203.66945063556</v>
       </c>
       <c r="S7">
-        <v>0.001851169369802613</v>
+        <v>0.002051678221628418</v>
       </c>
       <c r="T7">
-        <v>0.001851169369802613</v>
+        <v>0.002051678221628418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H8">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I8">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J8">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N8">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q8">
-        <v>7.13189923059289</v>
+        <v>0.68967560592</v>
       </c>
       <c r="R8">
-        <v>64.18709307533601</v>
+        <v>6.20708045328</v>
       </c>
       <c r="S8">
-        <v>0.0005599470321717826</v>
+        <v>6.252745193817767E-05</v>
       </c>
       <c r="T8">
-        <v>0.0005599470321717825</v>
+        <v>6.252745193817766E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H9">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I9">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J9">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N9">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O9">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P9">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q9">
-        <v>559.8684160365093</v>
+        <v>972.1633768287659</v>
       </c>
       <c r="R9">
-        <v>5038.815744328584</v>
+        <v>8749.470391458894</v>
       </c>
       <c r="S9">
-        <v>0.04395696683733129</v>
+        <v>0.08813839187429262</v>
       </c>
       <c r="T9">
-        <v>0.04395696683733129</v>
+        <v>0.08813839187429262</v>
       </c>
     </row>
   </sheetData>
